--- a/biology/Botanique/Jardin_Frida-Kahlo/Jardin_Frida-Kahlo.xlsx
+++ b/biology/Botanique/Jardin_Frida-Kahlo/Jardin_Frida-Kahlo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Frida Kahlo est un square du 20e arrondissement de Paris, dans le quartier Saint-Fargeau.
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 26, rue de Noisy-Le-Sec.
-Il est desservi par la ligne 3 bis à la station station Saint-Fargeau et par les lignes 3 bis et 11 à la station Porte des Lilas, ainsi que par la station de tramway « Adrienne Bolland » de la ligne 3b du tramway d'Île-de-France[1].
+Il est desservi par la ligne 3 bis à la station station Saint-Fargeau et par les lignes 3 bis et 11 à la station Porte des Lilas, ainsi que par la station de tramway « Adrienne Bolland » de la ligne 3b du tramway d'Île-de-France.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc rend hommage à l'artiste mexicaine Frida Kahlo (1907-1954) par vote à l'unanimité du Conseil de Paris.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 2011 sous le nom d'usage de « jardin de la Dalle Fougères », le square est nommé officiellement « jardin Frida Kahlo » depuis 2016, sur proposition des habitants du quartier et du Conseil du 20e arrondissement de Paris[2]. Il est doté, en particulier, d'un skatepark célèbre en Île-de-France[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 2011 sous le nom d'usage de « jardin de la Dalle Fougères », le square est nommé officiellement « jardin Frida Kahlo » depuis 2016, sur proposition des habitants du quartier et du Conseil du 20e arrondissement de Paris. Il est doté, en particulier, d'un skatepark célèbre en Île-de-France.
 </t>
         </is>
       </c>
